--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{468DB78F-210C-4DB9-B277-7CC0D8D841D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{266BC9FC-221E-40F3-86FB-843E14B200B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B78E9B-9D0A-484D-843F-3E2C2EF28DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -165,10 +168,28 @@
     <t>1 time</t>
   </si>
   <si>
-    <t>Oprette risikoanalyse</t>
-  </si>
-  <si>
     <t>3 timer</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Review af SSD01 Beregn Omsætning'</t>
+  </si>
+  <si>
+    <t>Lav AD08 Beregn Afskrivning</t>
+  </si>
+  <si>
+    <t>Indsaml test data til UC08 Beregn Afskrivning</t>
+  </si>
+  <si>
+    <t>Lav risikoanalyse</t>
+  </si>
+  <si>
+    <t>1t 30min</t>
+  </si>
+  <si>
+    <t>Lav vejledninger til branching i GitHub og  GitHub Desktop</t>
   </si>
 </sst>
 </file>
@@ -319,7 +340,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -344,10 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -364,13 +381,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +428,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -750,34 +779,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="53.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31" style="17" customWidth="1"/>
-    <col min="6" max="6" width="31" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="31" style="15" customWidth="1"/>
+    <col min="6" max="6" width="31" style="19" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
@@ -795,7 +824,7 @@
       <c r="E2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -806,451 +835,523 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>41</v>
+      <c r="A3" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12">
-        <v>43885</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5">
-        <f>E3-D3</f>
-        <v>3.472222222222221E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <f>SUM(G$3:G3)</f>
-        <v>3.472222222222221E-2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="13">
+        <v>43881</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43881</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43885</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5-D5</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SUM(G$5:G5)</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43885</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="G6" s="5">
+        <f>E6-D6</f>
+        <v>0.22916666666666663</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(G$5:G6)</f>
+        <v>0.26388888888888884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15">
-        <v>43885</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.4375</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="C7" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="5">
+        <f>E7-D7</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(G$5:G7)</f>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5">
+        <f>E8-D8</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM(G$5:G8)</f>
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E9" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
-        <v>0.22916666666666663</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SUM(G$3:G4)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SUM(G$3:G5)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SUM(G$3:G6)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SUM(G$3:G7)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SUM(G$3:G8)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G9:G34" si="0">E9-D9</f>
+        <v>0.15277777777777768</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM(G$3:G9)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G9)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>SUM(G$3:G10)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G10)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>SUM(G$3:G11)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G11)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>SUM(G$3:G12)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G12)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f>SUM(G$3:G13)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G13)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="15"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f>SUM(G$3:G14)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G14)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="15"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(G$3:G15)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G15)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="15"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>SUM(G$3:G16)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G16)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="15"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f>SUM(G$3:G17)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G17)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="13"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>SUM(G$3:G18)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G18)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="15"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="13"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f>SUM(G$3:G19)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G19)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="15"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f>SUM(G$3:G20)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G20)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="15"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f>SUM(G$3:G21)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G21)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="15"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f>SUM(G$3:G22)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G22)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="15"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f>SUM(G$3:G23)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G23)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="15"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f>SUM(G$3:G24)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G24)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f>SUM(G$3:G25)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G25)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f>SUM(G$3:G26)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G26)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="15"/>
+      <c r="C27" s="13"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f>SUM(G$3:G27)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G27)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="15"/>
+      <c r="C28" s="13"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f>SUM(G$3:G28)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G28)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="15"/>
+      <c r="C29" s="13"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f>SUM(G$3:G29)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G29)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="15"/>
+      <c r="C30" s="13"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f>SUM(G$3:G30)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G30)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="15"/>
+      <c r="C31" s="13"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f>SUM(G$3:G31)</f>
-        <v>0.26388888888888884</v>
+        <f>SUM(G$5:G31)</f>
+        <v>0.48263888888888878</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="15"/>
+      <c r="C32" s="13"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f>SUM(G$3:G32)</f>
-        <v>0.26388888888888884</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="15"/>
+        <f>SUM(G$5:G32)</f>
+        <v>0.48263888888888878</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C33" s="13"/>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <f>SUM(G$5:G33)</f>
+        <v>0.48263888888888878</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C34" s="13"/>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <f>SUM(G$5:G34)</f>
+        <v>0.48263888888888878</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1289,13 +1390,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B78E9B-9D0A-484D-843F-3E2C2EF28DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{21B78E9B-9D0A-484D-843F-3E2C2EF28DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F63B9AAE-08AE-4507-B351-23D04CF6AD2A}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,18 +990,18 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E9" s="14">
-        <v>0.66666666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G34" si="0">E9-D9</f>
-        <v>0.15277777777777768</v>
+        <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$5:G9)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$5:G10)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$5:G11)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$5:G12)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$5:G13)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$5:G14)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$5:G15)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$5:G16)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$5:G17)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$5:G18)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$5:G19)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$5:G20)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$5:G21)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$5:G22)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$5:G23)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$5:G24)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$5:G25)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$5:G26)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$5:G28)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>0.48263888888888878</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{21B78E9B-9D0A-484D-843F-3E2C2EF28DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F63B9AAE-08AE-4507-B351-23D04CF6AD2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C967DB9-38D5-4CA2-AC27-C8D5B07FAC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>Lav vejledninger til branching i GitHub og  GitHub Desktop</t>
+  </si>
+  <si>
+    <t>Udfør brugertest af Android mockup</t>
+  </si>
+  <si>
+    <t>Indsaml UC05 Beregn Markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Lav UC05 Beregn Markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Lav DOM05 Beregn Markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Review move og rename vejledning</t>
+  </si>
+  <si>
+    <t>Review AD02 Beregn vareforbrug</t>
   </si>
 </sst>
 </file>
@@ -782,7 +800,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,87 +1023,156 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$5:G10)</f>
-        <v>0.51388888888888884</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.5625</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$5:G11)</f>
-        <v>0.51388888888888884</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$5:G12)</f>
-        <v>0.51388888888888884</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$5:G13)</f>
-        <v>0.51388888888888884</v>
+        <v>0.65277777777777768</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$5:G14)</f>
-        <v>0.51388888888888884</v>
+        <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.625</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$5:G15)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1097,7 +1184,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$5:G16)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1109,7 +1196,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$5:G17)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1121,7 +1208,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$5:G18)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1133,7 +1220,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$5:G19)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1145,7 +1232,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$5:G20)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1157,7 +1244,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$5:G21)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1169,7 +1256,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$5:G22)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1181,7 +1268,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$5:G23)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1193,7 +1280,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$5:G24)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1205,7 +1292,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$5:G25)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1217,7 +1304,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$5:G26)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1228,7 +1315,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1239,7 +1326,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$5:G28)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1250,7 +1337,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1261,7 +1348,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1272,7 +1359,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1283,7 +1370,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1294,7 +1381,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1305,7 +1392,7 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>0.51388888888888884</v>
+        <v>0.67361111111111105</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C967DB9-38D5-4CA2-AC27-C8D5B07FAC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92010A5-B192-45CB-8568-E60F79EF9122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Review AD02 Beregn vareforbrug</t>
+  </si>
+  <si>
+    <t>Review DOM04 Salgsfremmende omkostninger</t>
+  </si>
+  <si>
+    <t>Opdater android mockup</t>
+  </si>
+  <si>
+    <t>Lav ADT05 Beregn Markedsføring</t>
   </si>
 </sst>
 </file>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G34" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G35" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1026,6 +1035,9 @@
       <c r="A10" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="13">
         <v>43887</v>
       </c>
@@ -1085,16 +1097,16 @@
         <v>0.5625</v>
       </c>
       <c r="E12" s="14">
-        <v>0.58333333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$5:G12)</f>
-        <v>0.63194444444444442</v>
+        <v>0.62152777777777768</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1108,50 +1120,47 @@
         <v>43887</v>
       </c>
       <c r="D13" s="14">
-        <v>0.58333333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E13" s="14">
-        <v>0.60416666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$5:G13)</f>
-        <v>0.65277777777777768</v>
+        <v>0.64236111111111105</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="13">
         <v>43887</v>
       </c>
       <c r="D14" s="14">
+        <v>0.59375</v>
+      </c>
+      <c r="E14" s="14">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.61458333333333337</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SUM(G$5:G14)</f>
-        <v>0.66319444444444442</v>
-      </c>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>31</v>
@@ -1160,58 +1169,102 @@
         <v>43887</v>
       </c>
       <c r="D15" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E15" s="14">
         <v>0.61458333333333337</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.625</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$5:G15)</f>
-        <v>0.67361111111111105</v>
+        <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="13"/>
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43887</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.625</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$5:G16)</f>
         <v>0.67361111111111105</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="13"/>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.375</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$5:G17)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="13"/>
-      <c r="F18" s="18"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$5:G18)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C19" s="13"/>
       <c r="F19" s="18"/>
       <c r="G19" s="5">
@@ -1220,10 +1273,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$5:G19)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C20" s="13"/>
       <c r="F20" s="18"/>
       <c r="G20" s="5">
@@ -1232,10 +1285,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$5:G20)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C21" s="13"/>
       <c r="F21" s="18"/>
       <c r="G21" s="5">
@@ -1244,10 +1297,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$5:G21)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C22" s="13"/>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
@@ -1256,10 +1309,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$5:G22)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C23" s="13"/>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
@@ -1268,10 +1321,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$5:G23)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C24" s="13"/>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
@@ -1280,10 +1333,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$5:G24)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C25" s="13"/>
       <c r="F25" s="18"/>
       <c r="G25" s="5">
@@ -1292,10 +1345,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$5:G25)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C26" s="13"/>
       <c r="F26" s="18"/>
       <c r="G26" s="5">
@@ -1304,21 +1357,22 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$5:G26)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C27" s="13"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="13"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1326,10 +1380,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$5:G28)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1337,10 +1391,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="13"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1348,10 +1402,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="13"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1359,10 +1413,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C32" s="13"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1370,7 +1424,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>0.67361111111111105</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1381,7 +1435,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>0.67361111111111105</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1392,11 +1446,19 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C35" s="13"/>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <f>SUM(G$5:G35)</f>
+        <v>0.76388888888888884</v>
+      </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="13"/>
@@ -1439,6 +1501,9 @@
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92010A5-B192-45CB-8568-E60F79EF9122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA67A9E-C56A-4BCF-8365-61D9CF57A50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Lav ADT05 Beregn Markedsføring</t>
+  </si>
+  <si>
+    <t>Lav SD0101 og DCD0101</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,15 +1268,29 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="13"/>
+      <c r="A19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$5:G19)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1285,7 +1302,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$5:G20)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1297,7 +1314,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$5:G21)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1309,7 +1326,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$5:G22)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1321,7 +1338,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$5:G23)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1333,7 +1350,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$5:G24)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1345,7 +1362,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$5:G25)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1357,7 +1374,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$5:G26)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1369,7 +1386,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1380,7 +1397,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$5:G28)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1391,7 +1408,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1402,7 +1419,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1413,7 +1430,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1424,7 +1441,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1435,7 +1452,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1446,7 +1463,7 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1457,7 +1474,7 @@
       </c>
       <c r="H35" s="1">
         <f>SUM(G$5:G35)</f>
-        <v>0.76388888888888884</v>
+        <v>0.9097222222222221</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\OneDrive\IdeaProjects\HoeKulator\08 Project Management\Tidsregistrering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA67A9E-C56A-4BCF-8365-61D9CF57A50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD8A761-9FAF-4D92-A955-A4E118626A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -220,6 +220,27 @@
   </si>
   <si>
     <t>Lav SD0101 og DCD0101</t>
+  </si>
+  <si>
+    <t>Implementering af SD0101 og SD0102</t>
+  </si>
+  <si>
+    <t>Lav unit test OC0101</t>
+  </si>
+  <si>
+    <t>Lav SD0103 of DCD0103</t>
+  </si>
+  <si>
+    <t>Sammensæt ADT05</t>
+  </si>
+  <si>
+    <t>Opdater UC01 og DOM01</t>
+  </si>
+  <si>
+    <t>Opdater SD0104 og DCD0104</t>
+  </si>
+  <si>
+    <t>Implementering af SD0104 og DCD0104</t>
   </si>
 </sst>
 </file>
@@ -809,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1047,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G35" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G38" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1294,87 +1315,176 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="13"/>
+      <c r="A20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.5</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <f>SUM(G$5:G20)</f>
-        <v>0.9097222222222221</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="13"/>
+      <c r="A21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43889</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <f>SUM(G$5:G21)</f>
-        <v>0.9097222222222221</v>
-      </c>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="13"/>
+      <c r="A22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <f>SUM(G$5:G22)</f>
-        <v>0.9097222222222221</v>
-      </c>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="13"/>
+      <c r="A23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2500000000000056E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$5:G23)</f>
-        <v>0.9097222222222221</v>
+        <v>1.2430555555555554</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="13"/>
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13">
+        <v>43892</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$5:G24)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3263888888888886</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="13"/>
+      <c r="A25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$5:G25)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3472222222222219</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="13"/>
+      <c r="A26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.40625</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$5:G26)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1386,40 +1496,43 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="13"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$5:G28)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="13"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="13"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1430,7 +1543,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1441,7 +1554,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1452,7 +1565,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1463,7 +1576,7 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>0.9097222222222221</v>
+        <v>1.3576388888888886</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1474,17 +1587,41 @@
       </c>
       <c r="H35" s="1">
         <f>SUM(G$5:G35)</f>
-        <v>0.9097222222222221</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.3576388888888886</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <f>SUM(G$5:G36)</f>
+        <v>1.3576388888888886</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>SUM(G$5:G37)</f>
+        <v>1.3576388888888886</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C38" s="13"/>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <f>SUM(G$5:G38)</f>
+        <v>1.3576388888888886</v>
+      </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="13"/>
@@ -1521,6 +1658,15 @@
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD8A761-9FAF-4D92-A955-A4E118626A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFCB413-2885-4AB9-8F37-D6C69C1E4C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Implementering af SD0104 og DCD0104</t>
+  </si>
+  <si>
+    <t>Lav OC0803 angivSaldoafskrivning</t>
+  </si>
+  <si>
+    <t>Lav SD0802 og DCD0802 angivLineaerAfskrivning</t>
+  </si>
+  <si>
+    <t>Review OC0802 og DCD0802</t>
   </si>
 </sst>
 </file>
@@ -830,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1056,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G38" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G39" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1488,39 +1497,80 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="13"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13">
+        <v>43893</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$5:G27)</f>
-        <v>1.3576388888888886</v>
+        <v>1.427083333333333</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="13"/>
+      <c r="A28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.625</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <f>SUM(G$5:G28)</f>
-        <v>1.3576388888888886</v>
-      </c>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="13"/>
+      <c r="A29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$5:G29)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1532,18 +1582,19 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$5:G30)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="13"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1554,7 +1605,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1565,7 +1616,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1576,7 +1627,7 @@
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1587,7 +1638,7 @@
       </c>
       <c r="H35" s="1">
         <f>SUM(G$5:G35)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1598,7 +1649,7 @@
       </c>
       <c r="H36" s="1">
         <f>SUM(G$5:G36)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1609,7 +1660,7 @@
       </c>
       <c r="H37" s="1">
         <f>SUM(G$5:G37)</f>
-        <v>1.3576388888888886</v>
+        <v>1.4930555555555554</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1620,11 +1671,19 @@
       </c>
       <c r="H38" s="1">
         <f>SUM(G$5:G38)</f>
-        <v>1.3576388888888886</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.4930555555555554</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C39" s="13"/>
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f>SUM(G$5:G39)</f>
+        <v>1.4930555555555554</v>
+      </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="13"/>
@@ -1667,6 +1726,9 @@
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFCB413-2885-4AB9-8F37-D6C69C1E4C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B094C5-1F9A-466A-AB38-C270AAD5C13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -250,6 +250,30 @@
   </si>
   <si>
     <t>Review OC0802 og DCD0802</t>
+  </si>
+  <si>
+    <t>Lav SD0804 angivStraksafskrivning</t>
+  </si>
+  <si>
+    <t>Indsaml data til UC09 Beregn resultat uden renter</t>
+  </si>
+  <si>
+    <t>Lav UC09 Beregn resultat før renter</t>
+  </si>
+  <si>
+    <t>Lav DOM09 Beregn resultat før renter</t>
+  </si>
+  <si>
+    <t>Lav ADT09a Beregn resultat før renter</t>
+  </si>
+  <si>
+    <t>Review UC10, DOM10 og ADT10a</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Lav SD0802 angivLineaerAfskrivning</t>
   </si>
 </sst>
 </file>
@@ -839,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1080,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G39" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G40" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1501,7 +1525,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" s="13">
         <v>43893</v>
@@ -1532,7 +1556,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="13">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="D28" s="15">
         <v>0.60416666666666663</v>
@@ -1552,10 +1576,10 @@
         <v>69</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" s="13">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="D29" s="15">
         <v>0.625</v>
@@ -1574,85 +1598,195 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="13"/>
+      <c r="A30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <f>SUM(G$5:G30)</f>
-        <v>1.4930555555555554</v>
-      </c>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="13"/>
+      <c r="A31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.59375</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$5:G31)</f>
-        <v>1.4930555555555554</v>
+        <v>1.6076388888888884</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="13"/>
+      <c r="A32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.59375</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$5:G32)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C33" s="13"/>
+        <v>1.6388888888888884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H33" s="1">
         <f>SUM(G$5:G33)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C34" s="13"/>
+        <v>1.6493055555555549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="H34" s="1">
         <f>SUM(G$5:G34)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C35" s="13"/>
+        <v>1.6597222222222217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.65625</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="H35" s="1">
         <f>SUM(G$5:G35)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C36" s="13"/>
+        <v>1.6701388888888884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13">
+        <v>43894</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.65625</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="H36" s="1">
         <f>SUM(G$5:G36)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.6874999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C37" s="13"/>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
@@ -1660,10 +1794,10 @@
       </c>
       <c r="H37" s="1">
         <f>SUM(G$5:G37)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.6874999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C38" s="13"/>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
@@ -1671,10 +1805,10 @@
       </c>
       <c r="H38" s="1">
         <f>SUM(G$5:G38)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.6874999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C39" s="13"/>
       <c r="G39" s="5">
         <f t="shared" si="0"/>
@@ -1682,34 +1816,42 @@
       </c>
       <c r="H39" s="1">
         <f>SUM(G$5:G39)</f>
-        <v>1.4930555555555554</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.6874999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f>SUM(G$5:G40)</f>
+        <v>1.6874999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="13"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
@@ -1729,6 +1871,9 @@
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B094C5-1F9A-466A-AB38-C270AAD5C13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D663E-9D2F-453C-A788-68988232C21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>business-Process Analyst</t>
-  </si>
-  <si>
-    <t>business designer</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Analyst </t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Implenter</t>
   </si>
   <si>
-    <t>integrator</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Tester</t>
   </si>
   <si>
-    <t xml:space="preserve">System Adminstrator </t>
-  </si>
-  <si>
     <t>Techincal Writer</t>
   </si>
   <si>
@@ -274,6 +262,42 @@
   </si>
   <si>
     <t>Lav SD0802 angivLineaerAfskrivning</t>
+  </si>
+  <si>
+    <t>Lav DD09</t>
+  </si>
+  <si>
+    <t>Commit Mockup09a</t>
+  </si>
+  <si>
+    <t>Review SD0804 og DCD0804</t>
+  </si>
+  <si>
+    <t>Implementer UI01</t>
+  </si>
+  <si>
+    <t>Review SD0803 og DCD0803</t>
+  </si>
+  <si>
+    <t>Lav-STD0102-angivAfsætningOgSalgspris</t>
+  </si>
+  <si>
+    <t>Test Designer</t>
+  </si>
+  <si>
+    <t>Implementer</t>
+  </si>
+  <si>
+    <t>Integrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Administrator </t>
+  </si>
+  <si>
+    <t>Business-Process Analyst</t>
+  </si>
+  <si>
+    <t>Business designer</t>
   </si>
 </sst>
 </file>
@@ -424,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -480,6 +504,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,20 +906,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -903,27 +928,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="13">
         <v>43881</v>
@@ -936,10 +961,10 @@
     </row>
     <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13">
         <v>43881</v>
@@ -952,10 +977,10 @@
     </row>
     <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13">
         <v>43885</v>
@@ -967,7 +992,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5">
         <f>E5-D5</f>
@@ -980,10 +1005,10 @@
     </row>
     <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="13">
         <v>43885</v>
@@ -995,7 +1020,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5">
         <f>E6-D6</f>
@@ -1008,10 +1033,10 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="13">
         <v>43886</v>
@@ -1034,10 +1059,10 @@
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13">
         <v>43886</v>
@@ -1049,7 +1074,7 @@
         <v>0.44097222222222227</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5">
         <f>E8-D8</f>
@@ -1062,10 +1087,10 @@
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="13">
         <v>43886</v>
@@ -1077,10 +1102,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G40" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G43" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1090,10 +1115,10 @@
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13">
         <v>43887</v>
@@ -1116,10 +1141,10 @@
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="13">
         <v>43887</v>
@@ -1142,10 +1167,10 @@
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="13">
         <v>43887</v>
@@ -1168,10 +1193,10 @@
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="13">
         <v>43887</v>
@@ -1194,10 +1219,10 @@
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13">
         <v>43887</v>
@@ -1217,10 +1242,10 @@
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="13">
         <v>43887</v>
@@ -1243,10 +1268,10 @@
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="13">
         <v>43887</v>
@@ -1269,10 +1294,10 @@
     </row>
     <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="13">
         <v>43888</v>
@@ -1295,10 +1320,10 @@
     </row>
     <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="13">
         <v>43888</v>
@@ -1310,7 +1335,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
@@ -1323,10 +1348,10 @@
     </row>
     <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="13">
         <v>43888</v>
@@ -1349,10 +1374,10 @@
     </row>
     <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13">
         <v>43889</v>
@@ -1372,10 +1397,10 @@
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="13">
         <v>43889</v>
@@ -1395,10 +1420,10 @@
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="13">
         <v>43892</v>
@@ -1418,10 +1443,10 @@
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="13">
         <v>43892</v>
@@ -1444,10 +1469,10 @@
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13">
         <v>43892</v>
@@ -1470,10 +1495,10 @@
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="13">
         <v>43893</v>
@@ -1496,10 +1521,10 @@
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="13">
         <v>43893</v>
@@ -1522,10 +1547,10 @@
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="13">
         <v>43893</v>
@@ -1537,7 +1562,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1550,10 +1575,10 @@
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="13">
         <v>43893</v>
@@ -1573,10 +1598,10 @@
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="13">
         <v>43893</v>
@@ -1599,10 +1624,10 @@
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="13">
         <v>43894</v>
@@ -1622,10 +1647,10 @@
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="13">
         <v>43894</v>
@@ -1648,10 +1673,10 @@
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="13">
         <v>43894</v>
@@ -1663,7 +1688,7 @@
         <v>0.625</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1676,10 +1701,10 @@
     </row>
     <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="13">
         <v>43894</v>
@@ -1691,7 +1716,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
@@ -1704,10 +1729,10 @@
     </row>
     <row r="34" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="13">
         <v>43894</v>
@@ -1719,7 +1744,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
@@ -1732,10 +1757,10 @@
     </row>
     <row r="35" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="13">
         <v>43894</v>
@@ -1747,7 +1772,7 @@
         <v>0.65625</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
@@ -1760,10 +1785,10 @@
     </row>
     <row r="36" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" s="13">
         <v>43894</v>
@@ -1775,7 +1800,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
@@ -1787,57 +1812,173 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C37" s="13"/>
+      <c r="A37" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F37" s="20"/>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <f>SUM(G$5:G37)</f>
-        <v>1.6874999999999996</v>
-      </c>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C38" s="13"/>
+      <c r="A38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F38" s="20"/>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f>SUM(G$5:G38)</f>
-        <v>1.6874999999999996</v>
-      </c>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C39" s="13"/>
+      <c r="A39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F39" s="20"/>
       <c r="G39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <f>SUM(G$5:G39)</f>
-        <v>1.6874999999999996</v>
-      </c>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C40" s="13"/>
+      <c r="A40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5972222222222265E-2</v>
       </c>
       <c r="H40" s="1">
         <f>SUM(G$5:G40)</f>
-        <v>1.6874999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="13"/>
+        <v>1.7847222222222219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A41" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <f>SUM(G$5:G41)</f>
+        <v>1.8472222222222219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.59375</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <f>SUM(G$5:G42)</f>
+        <v>1.8576388888888884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="13">
+        <v>43895</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f>SUM(G$5:G43)</f>
+        <v>1.8680555555555551</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
@@ -1874,6 +2015,15 @@
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1902,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,13 +2062,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1933,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1941,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1949,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1957,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1965,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1973,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1997,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2013,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2021,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2029,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2037,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2045,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2203,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2101,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2117,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2125,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2133,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2141,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2149,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2157,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
+++ b/08 Project Management/Tidsregistrering/PM08 Tidsregistrering for Benjamin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D663E-9D2F-453C-A788-68988232C21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B06EA5-819A-4C1A-9CF3-AC3A18F176C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -298,6 +298,33 @@
   </si>
   <si>
     <t>Business designer</t>
+  </si>
+  <si>
+    <t>Opdater DOM07 Beregn Indtjeningsbidrag</t>
+  </si>
+  <si>
+    <t>Opdater UC07 Beregn Indtjeningsbidrag</t>
+  </si>
+  <si>
+    <t>Lav SSD07 Beregn Indtjeningsbidrag</t>
+  </si>
+  <si>
+    <t>Opdater SSD05 Beregn Markedsføringsbidrag</t>
+  </si>
+  <si>
+    <t>Lav SSD06 Beregn Kontante kapacitetsomkostninger</t>
+  </si>
+  <si>
+    <t>Koble OmsætningUI sammen med GrundUI</t>
+  </si>
+  <si>
+    <t>Opsæt HoeKulator-projekt til at bruge to sourcemapper</t>
+  </si>
+  <si>
+    <t>Koble AfsætningUI sammen med GrundUI</t>
+  </si>
+  <si>
+    <t>Opdatere AfsætningUI</t>
   </si>
 </sst>
 </file>
@@ -888,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1132,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G43" si="0">E9-D9</f>
+        <f t="shared" ref="G9:G70" si="0">E9-D9</f>
         <v>0.18402777777777768</v>
       </c>
       <c r="H9" s="1">
@@ -1238,7 +1265,10 @@
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f>SUM(G$5:G14)</f>
+        <v>0.65277777777777768</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -1393,7 +1423,10 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <f>SUM(G$5:G20)</f>
+        <v>1.0347222222222221</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -1416,7 +1449,10 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <f>SUM(G$5:G21)</f>
+        <v>1.0972222222222221</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -1439,7 +1475,10 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <f>SUM(G$5:G22)</f>
+        <v>1.1805555555555554</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -1594,7 +1633,10 @@
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <f>SUM(G$5:G28)</f>
+        <v>1.4479166666666665</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -1643,7 +1685,10 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <f>SUM(G$5:G30)</f>
+        <v>1.5347222222222219</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
@@ -1832,7 +1877,10 @@
         <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <f>SUM(G$5:G37)</f>
+        <v>1.6979166666666663</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
@@ -1855,7 +1903,10 @@
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <f>SUM(G$5:G38)</f>
+        <v>1.708333333333333</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
@@ -1878,7 +1929,10 @@
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <f>SUM(G$5:G39)</f>
+        <v>1.7187499999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
@@ -1980,50 +2034,430 @@
         <v>1.8680555555555551</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <f>SUM(G$5:G44)</f>
+        <v>1.8784722222222219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H45" s="1">
+        <f>SUM(G$5:G45)</f>
+        <v>1.8819444444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D46" s="15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <f>SUM(G$5:G46)</f>
+        <v>1.9305555555555554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D47" s="15">
+        <v>0.4375</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <f>SUM(G$5:G47)</f>
+        <v>1.9444444444444442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <f>SUM(G$5:G48)</f>
+        <v>1.9652777777777777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D49" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <f>SUM(G$5:G49)</f>
+        <v>2.0277777777777777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="13">
+        <v>43896</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <f>SUM(G$5:G50)</f>
+        <v>2.1111111111111107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D51" s="15">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E51" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f>SUM(G$5:G51)</f>
+        <v>2.1631944444444442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E52" s="15">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <f>SUM(G$5:G52)</f>
+        <v>2.21875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="13">
+        <v>43899</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E53" s="15">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="H53" s="1">
+        <f>SUM(G$5:G53)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G54" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f>SUM(G$5:G54)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G55" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <f>SUM(G$5:G55)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G56" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <f>SUM(G$5:G56)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G57" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f>SUM(G$5:G57)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C58" s="13"/>
+      <c r="G58" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f>SUM(G$5:G58)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G59" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <f>SUM(G$5:G59)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G60" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f>SUM(G$5:G60)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G61" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <f>SUM(G$5:G61)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G62" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <f>SUM(G$5:G62)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G63" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <f>SUM(G$5:G63)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G64" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <f>SUM(G$5:G64)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G65" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <f>SUM(G$5:G65)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G66" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <f>SUM(G$5:G66)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G67" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <f>SUM(G$5:G67)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G68" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <f>SUM(G$5:G68)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G69" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <f>SUM(G$5:G69)</f>
+        <v>2.3506944444444446</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="G70" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <f>SUM(G$5:G70)</f>
+        <v>2.3506944444444446</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
